--- a/School-Age-Digital-Connectivity.xlsx
+++ b/School-Age-Digital-Connectivity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unicef-my.sharepoint.com/personal/kavanesyan_unicef_org/Documents/R codes/School Age Digital Connectivity/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolcavallari/Github/Assignments fall 21:22/Final-Work-Data-Science/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B806705-B777-4297-B160-5997738C4E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8651D08F-E6F8-2D4A-97BA-DB273B271636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="15520" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Lower Secondary'!$A$1:$L$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Upper Secondary'!$A$1:$L$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Upper Secondary'!$A$2:$L$2</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -986,7 +986,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1607,38 +1607,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33F0711-8F9F-4DC2-A629-139BAF0994F9}">
   <dimension ref="A4:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="119.85546875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.85546875" style="1"/>
+    <col min="1" max="1" width="28.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="119.83203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" ht="18.75">
+    <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:2" ht="15.75">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:2" ht="30">
+    <row r="8" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
@@ -1646,19 +1646,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:2" s="9" customFormat="1">
+    <row r="10" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
     </row>
-    <row r="11" spans="1:2" s="9" customFormat="1" ht="15.75">
+    <row r="11" spans="1:2" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:2" s="9" customFormat="1">
+    <row r="12" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="9" customFormat="1" ht="30">
+    <row r="13" spans="1:2" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
@@ -1674,19 +1674,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="9" customFormat="1">
+    <row r="14" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
     </row>
-    <row r="15" spans="1:2" s="9" customFormat="1">
+    <row r="15" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:2" s="9" customFormat="1" ht="15.75">
+    <row r="16" spans="1:2" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:2" s="9" customFormat="1" ht="30">
+    <row r="17" spans="1:2" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>11</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="9" customFormat="1" ht="30">
+    <row r="18" spans="1:2" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>13</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="9" customFormat="1">
+    <row r="20" spans="1:2" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>15</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="9" customFormat="1">
+    <row r="21" spans="1:2" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
@@ -1718,11 +1718,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="9" customFormat="1">
+    <row r="22" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:2" s="9" customFormat="1">
+    <row r="23" spans="1:2" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>19</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="9" customFormat="1">
+    <row r="24" spans="1:2" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>21</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="9" customFormat="1">
+    <row r="25" spans="1:2" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>23</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="9" customFormat="1">
+    <row r="26" spans="1:2" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>25</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="9" customFormat="1">
+    <row r="27" spans="1:2" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
         <v>27</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="9" customFormat="1">
+    <row r="28" spans="1:2" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>29</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="9" customFormat="1">
+    <row r="29" spans="1:2" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>31</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="9" customFormat="1">
+    <row r="30" spans="1:2" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
         <v>33</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="9" customFormat="1">
+    <row r="31" spans="1:2" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
         <v>35</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="9" customFormat="1">
+    <row r="32" spans="1:2" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
         <v>37</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="9" customFormat="1">
+    <row r="33" spans="1:2" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
         <v>39</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="9" customFormat="1" ht="45">
+    <row r="34" spans="1:2" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>41</v>
       </c>
@@ -1818,33 +1818,33 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="9" customFormat="1">
+    <row r="35" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="12"/>
     </row>
-    <row r="36" spans="1:2" s="9" customFormat="1">
+    <row r="36" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
     </row>
-    <row r="37" spans="1:2" s="9" customFormat="1">
+    <row r="37" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="12"/>
     </row>
-    <row r="38" spans="1:2" s="9" customFormat="1">
+    <row r="38" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B38" s="11"/>
     </row>
-    <row r="39" spans="1:2" s="9" customFormat="1">
+    <row r="39" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
     </row>
-    <row r="40" spans="1:2" s="9" customFormat="1">
+    <row r="40" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:2" s="9" customFormat="1">
+    <row r="41" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
     </row>
   </sheetData>
@@ -1858,21 +1858,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="12" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="39.5" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>45</v>
       </c>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="L1" s="27"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="29"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -1932,7 +1932,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>100</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>108</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>111</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>114</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>118</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>122</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>126</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>130</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>132</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>134</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>141</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>144</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>148</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>150</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>152</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>154</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>157</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>159</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>162</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>164</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>167</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>169</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>172</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>174</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>177</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>179</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>181</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>183</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>185</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>187</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>189</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>191</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>193</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>195</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>197</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>199</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>202</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>204</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>207</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>210</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>213</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>217</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>219</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>221</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>224</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>227</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>229</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>231</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>233</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>235</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>237</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>240</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>243</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>245</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>248</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>250</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>252</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>254</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>257</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>259</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>261</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>263</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>266</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>268</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>270</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>272</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>275</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>278</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>282</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>285</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>288</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>290</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>292</v>
       </c>
@@ -5154,19 +5154,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="9.140625" style="23"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="9.1640625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>45</v>
       </c>
@@ -5198,7 +5198,7 @@
       </c>
       <c r="L1" s="27"/>
     </row>
-    <row r="2" spans="1:12" ht="30">
+    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -5226,7 +5226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>60</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
         <v>66</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>73</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>77</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
         <v>81</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
         <v>85</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
         <v>89</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
         <v>94</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
         <v>98</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
         <v>100</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
         <v>104</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
         <v>108</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
         <v>111</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
         <v>114</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
         <v>116</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
         <v>118</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
         <v>122</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
         <v>126</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
         <v>128</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
         <v>130</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
         <v>132</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
         <v>134</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
         <v>136</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
         <v>139</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
         <v>141</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
         <v>144</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
         <v>148</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
         <v>150</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
         <v>152</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
         <v>154</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
         <v>157</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
         <v>159</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>162</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
         <v>164</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
         <v>167</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
         <v>169</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
         <v>172</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="24" t="s">
         <v>174</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
         <v>177</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="24" t="s">
         <v>179</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="24" t="s">
         <v>181</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="24" t="s">
         <v>183</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="24" t="s">
         <v>185</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="24" t="s">
         <v>187</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="24" t="s">
         <v>189</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="24" t="s">
         <v>191</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
         <v>193</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="24" t="s">
         <v>195</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="24" t="s">
         <v>197</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="24" t="s">
         <v>199</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="24" t="s">
         <v>202</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
         <v>204</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
         <v>207</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="24" t="s">
         <v>210</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="24" t="s">
         <v>213</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="24" t="s">
         <v>217</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="24" t="s">
         <v>219</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="24" t="s">
         <v>221</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="24" t="s">
         <v>224</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="24" t="s">
         <v>227</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="24" t="s">
         <v>229</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="24" t="s">
         <v>231</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="24" t="s">
         <v>233</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="24" t="s">
         <v>235</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="24" t="s">
         <v>237</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="24" t="s">
         <v>240</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="24" t="s">
         <v>243</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="24" t="s">
         <v>245</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="24" t="s">
         <v>248</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="24" t="s">
         <v>250</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="24" t="s">
         <v>252</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="24" t="s">
         <v>254</v>
       </c>
@@ -7878,7 +7878,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="24" t="s">
         <v>257</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="24" t="s">
         <v>259</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="24" t="s">
         <v>261</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="24" t="s">
         <v>263</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="24" t="s">
         <v>266</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="24" t="s">
         <v>268</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="24" t="s">
         <v>270</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="24" t="s">
         <v>272</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="24" t="s">
         <v>275</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="24" t="s">
         <v>278</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="24" t="s">
         <v>282</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="24" t="s">
         <v>285</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="24" t="s">
         <v>288</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="24" t="s">
         <v>290</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="24" t="s">
         <v>292</v>
       </c>
@@ -8450,16 +8450,16 @@
       <selection activeCell="I18" sqref="I18:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="9.140625" style="23"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="9.1640625" style="23"/>
+    <col min="11" max="11" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>45</v>
       </c>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="L1" s="27"/>
     </row>
-    <row r="2" spans="1:12" ht="30">
+    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -8519,7 +8519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>66</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
         <v>73</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>77</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>81</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
         <v>85</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
         <v>89</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
         <v>94</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
         <v>98</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
         <v>100</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
         <v>104</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
         <v>108</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
         <v>111</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
         <v>114</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
         <v>116</v>
       </c>
@@ -9039,7 +9039,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
         <v>118</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
         <v>122</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
         <v>126</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
         <v>128</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
         <v>130</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
         <v>132</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
         <v>134</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
         <v>136</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
         <v>139</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
         <v>141</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
         <v>144</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
         <v>148</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
         <v>150</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
         <v>152</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
         <v>154</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
         <v>157</v>
       </c>
@@ -9635,7 +9635,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
         <v>159</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
         <v>162</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>164</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
         <v>167</v>
       </c>
@@ -9787,7 +9787,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
         <v>295</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
         <v>169</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
         <v>172</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="24" t="s">
         <v>174</v>
       </c>
@@ -9925,7 +9925,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
         <v>177</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="24" t="s">
         <v>179</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="24" t="s">
         <v>181</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="24" t="s">
         <v>183</v>
       </c>
@@ -10077,7 +10077,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="24" t="s">
         <v>185</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="24" t="s">
         <v>187</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="24" t="s">
         <v>189</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="24" t="s">
         <v>191</v>
       </c>
@@ -10229,7 +10229,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
         <v>193</v>
       </c>
@@ -10263,7 +10263,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="24" t="s">
         <v>195</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="24" t="s">
         <v>197</v>
       </c>
@@ -10339,7 +10339,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="24" t="s">
         <v>199</v>
       </c>
@@ -10373,7 +10373,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="24" t="s">
         <v>202</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
         <v>204</v>
       </c>
@@ -10449,7 +10449,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
         <v>207</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="24" t="s">
         <v>210</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="24" t="s">
         <v>213</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="24" t="s">
         <v>217</v>
       </c>
@@ -10577,7 +10577,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="24" t="s">
         <v>219</v>
       </c>
@@ -10615,7 +10615,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="24" t="s">
         <v>221</v>
       </c>
@@ -10649,7 +10649,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="24" t="s">
         <v>224</v>
       </c>
@@ -10685,7 +10685,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="24" t="s">
         <v>227</v>
       </c>
@@ -10721,7 +10721,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="24" t="s">
         <v>229</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="24" t="s">
         <v>231</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="24" t="s">
         <v>233</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="24" t="s">
         <v>235</v>
       </c>
@@ -10873,7 +10873,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="24" t="s">
         <v>237</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="24" t="s">
         <v>240</v>
       </c>
@@ -10933,7 +10933,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="24" t="s">
         <v>243</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="24" t="s">
         <v>245</v>
       </c>
@@ -11009,7 +11009,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="24" t="s">
         <v>248</v>
       </c>
@@ -11047,7 +11047,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="24" t="s">
         <v>250</v>
       </c>
@@ -11085,7 +11085,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="24" t="s">
         <v>252</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="24" t="s">
         <v>254</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="24" t="s">
         <v>257</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="24" t="s">
         <v>259</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="24" t="s">
         <v>261</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="24" t="s">
         <v>263</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="24" t="s">
         <v>266</v>
       </c>
@@ -11351,7 +11351,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="24" t="s">
         <v>268</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="24" t="s">
         <v>270</v>
       </c>
@@ -11427,7 +11427,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="24" t="s">
         <v>272</v>
       </c>
@@ -11465,7 +11465,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="24" t="s">
         <v>275</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="24" t="s">
         <v>278</v>
       </c>
@@ -11527,7 +11527,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="24" t="s">
         <v>282</v>
       </c>
@@ -11563,7 +11563,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="24" t="s">
         <v>285</v>
       </c>
@@ -11601,7 +11601,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="24" t="s">
         <v>288</v>
       </c>
@@ -11633,7 +11633,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="24" t="s">
         <v>290</v>
       </c>
@@ -11671,7 +11671,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="24" t="s">
         <v>292</v>
       </c>
@@ -11733,18 +11733,18 @@
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="9.140625" style="23"/>
-    <col min="11" max="11" width="29.28515625" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="9.1640625" style="23"/>
+    <col min="11" max="11" width="29.33203125" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>45</v>
       </c>
@@ -11776,7 +11776,7 @@
       </c>
       <c r="L1" s="27"/>
     </row>
-    <row r="2" spans="1:12" ht="30">
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -11804,7 +11804,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>60</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
         <v>66</v>
       </c>
@@ -11880,7 +11880,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>73</v>
       </c>
@@ -11910,7 +11910,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>77</v>
       </c>
@@ -11948,7 +11948,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
         <v>81</v>
       </c>
@@ -11986,7 +11986,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
         <v>85</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
         <v>89</v>
       </c>
@@ -12062,7 +12062,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
         <v>94</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
         <v>98</v>
       </c>
@@ -12134,7 +12134,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
         <v>100</v>
       </c>
@@ -12172,7 +12172,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
         <v>104</v>
       </c>
@@ -12210,7 +12210,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
         <v>108</v>
       </c>
@@ -12248,7 +12248,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
         <v>111</v>
       </c>
@@ -12286,7 +12286,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
         <v>114</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
         <v>116</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
         <v>118</v>
       </c>
@@ -12400,7 +12400,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
         <v>122</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
         <v>126</v>
       </c>
@@ -12472,7 +12472,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
         <v>128</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
         <v>130</v>
       </c>
@@ -12548,7 +12548,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
         <v>132</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
         <v>134</v>
       </c>
@@ -12624,7 +12624,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
         <v>136</v>
       </c>
@@ -12662,7 +12662,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
         <v>139</v>
       </c>
@@ -12700,7 +12700,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
         <v>141</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
         <v>144</v>
       </c>
@@ -12768,7 +12768,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
         <v>148</v>
       </c>
@@ -12806,7 +12806,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
         <v>150</v>
       </c>
@@ -12844,7 +12844,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
         <v>152</v>
       </c>
@@ -12882,7 +12882,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
         <v>154</v>
       </c>
@@ -12920,7 +12920,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
         <v>157</v>
       </c>
@@ -12958,7 +12958,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
         <v>159</v>
       </c>
@@ -12996,7 +12996,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>162</v>
       </c>
@@ -13034,7 +13034,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
         <v>164</v>
       </c>
@@ -13072,7 +13072,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
         <v>167</v>
       </c>
@@ -13110,7 +13110,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
         <v>169</v>
       </c>
@@ -13148,7 +13148,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
         <v>172</v>
       </c>
@@ -13186,7 +13186,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="24" t="s">
         <v>174</v>
       </c>
@@ -13218,7 +13218,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
         <v>177</v>
       </c>
@@ -13256,7 +13256,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="24" t="s">
         <v>179</v>
       </c>
@@ -13294,7 +13294,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="24" t="s">
         <v>181</v>
       </c>
@@ -13332,7 +13332,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="24" t="s">
         <v>183</v>
       </c>
@@ -13370,7 +13370,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="24" t="s">
         <v>185</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="24" t="s">
         <v>187</v>
       </c>
@@ -13446,7 +13446,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="24" t="s">
         <v>189</v>
       </c>
@@ -13484,7 +13484,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="24" t="s">
         <v>191</v>
       </c>
@@ -13522,7 +13522,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
         <v>193</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="24" t="s">
         <v>195</v>
       </c>
@@ -13594,7 +13594,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="24" t="s">
         <v>197</v>
       </c>
@@ -13632,7 +13632,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="24" t="s">
         <v>199</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="24" t="s">
         <v>202</v>
       </c>
@@ -13704,7 +13704,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
         <v>204</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
         <v>207</v>
       </c>
@@ -13772,7 +13772,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="24" t="s">
         <v>210</v>
       </c>
@@ -13802,7 +13802,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="24" t="s">
         <v>213</v>
       </c>
@@ -13832,7 +13832,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="24" t="s">
         <v>217</v>
       </c>
@@ -13870,7 +13870,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="24" t="s">
         <v>219</v>
       </c>
@@ -13908,7 +13908,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="24" t="s">
         <v>221</v>
       </c>
@@ -13942,7 +13942,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="24" t="s">
         <v>224</v>
       </c>
@@ -13980,7 +13980,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="24" t="s">
         <v>227</v>
       </c>
@@ -14016,7 +14016,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="24" t="s">
         <v>229</v>
       </c>
@@ -14054,7 +14054,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="24" t="s">
         <v>231</v>
       </c>
@@ -14092,7 +14092,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="24" t="s">
         <v>233</v>
       </c>
@@ -14130,7 +14130,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="24" t="s">
         <v>235</v>
       </c>
@@ -14168,7 +14168,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="24" t="s">
         <v>237</v>
       </c>
@@ -14198,7 +14198,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="24" t="s">
         <v>240</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="24" t="s">
         <v>243</v>
       </c>
@@ -14266,7 +14266,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="24" t="s">
         <v>245</v>
       </c>
@@ -14304,7 +14304,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="24" t="s">
         <v>248</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="24" t="s">
         <v>250</v>
       </c>
@@ -14380,7 +14380,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="24" t="s">
         <v>252</v>
       </c>
@@ -14418,7 +14418,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="24" t="s">
         <v>254</v>
       </c>
@@ -14456,7 +14456,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="24" t="s">
         <v>257</v>
       </c>
@@ -14494,7 +14494,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="24" t="s">
         <v>259</v>
       </c>
@@ -14532,7 +14532,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="24" t="s">
         <v>261</v>
       </c>
@@ -14570,7 +14570,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="24" t="s">
         <v>263</v>
       </c>
@@ -14608,7 +14608,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="24" t="s">
         <v>266</v>
       </c>
@@ -14646,7 +14646,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="24" t="s">
         <v>268</v>
       </c>
@@ -14684,7 +14684,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="24" t="s">
         <v>270</v>
       </c>
@@ -14722,7 +14722,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="24" t="s">
         <v>272</v>
       </c>
@@ -14760,7 +14760,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="24" t="s">
         <v>275</v>
       </c>
@@ -14792,7 +14792,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="24" t="s">
         <v>278</v>
       </c>
@@ -14822,7 +14822,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="24" t="s">
         <v>282</v>
       </c>
@@ -14858,7 +14858,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="24" t="s">
         <v>285</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="24" t="s">
         <v>288</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="24" t="s">
         <v>290</v>
       </c>
@@ -14966,7 +14966,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="24" t="s">
         <v>292</v>
       </c>
@@ -15024,22 +15024,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="23"/>
+    <col min="7" max="9" width="9.1640625" style="23"/>
     <col min="10" max="10" width="12" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="51.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="51.5" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>45</v>
       </c>
@@ -15071,7 +15071,7 @@
       </c>
       <c r="L1" s="27"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -15099,142 +15099,150 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
-        <v>66</v>
+        <v>254</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>67</v>
+        <v>255</v>
       </c>
       <c r="C3" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="25">
+        <v>0.77078371656368805</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0.72964334697309596</v>
+      </c>
+      <c r="H3" s="25">
+        <v>0.82672279650681302</v>
+      </c>
+      <c r="I3" s="25">
+        <v>0.60290970987365888</v>
+      </c>
+      <c r="J3" s="25">
+        <v>0.96936410369026016</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0.48918290572575801</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0.34472647095679199</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0.56805966306515598</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0.18258216399079893</v>
+      </c>
+      <c r="J4" s="25">
+        <v>0.90341000928282555</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0.41966715328915499</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0.38109266037767497</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0.567927742858373</v>
+      </c>
+      <c r="I5" s="25">
+        <v>0.12541977517529146</v>
+      </c>
+      <c r="J5" s="25">
+        <v>0.78782969311450468</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="25">
-        <v>0.24030772688511501</v>
-      </c>
-      <c r="G3" s="25">
-        <v>1.87528342558019E-2</v>
-      </c>
-      <c r="H3" s="25">
-        <v>0.32634722077915801</v>
-      </c>
-      <c r="I3" s="25">
-        <v>0</v>
-      </c>
-      <c r="J3" s="25">
-        <v>0.68611199252001431</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="25">
-        <v>0.44719333725150801</v>
-      </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="25">
-        <v>0.84859092913899103</v>
-      </c>
-      <c r="G5" s="25">
-        <v>0.77845250561664503</v>
-      </c>
-      <c r="H5" s="25">
-        <v>0.90997850261011204</v>
-      </c>
-      <c r="I5" s="25">
-        <v>0.5406450230822013</v>
-      </c>
-      <c r="J5" s="25">
-        <v>1</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>83</v>
-      </c>
       <c r="D6" s="24" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="F6" s="25">
-        <v>0.41966715328915499</v>
+        <v>3.4954439649673201E-2</v>
       </c>
       <c r="G6" s="25">
-        <v>0.38109266037767497</v>
+        <v>1.12718736260514E-2</v>
       </c>
       <c r="H6" s="25">
-        <v>0.567927742858373</v>
+        <v>0.116227532217278</v>
       </c>
       <c r="I6" s="25">
-        <v>0.12541977517529146</v>
+        <v>4.49604636240746E-3</v>
       </c>
       <c r="J6" s="25">
-        <v>0.78782969311450468</v>
+        <v>0.12294914237208542</v>
       </c>
       <c r="K6" s="24" t="s">
         <v>64</v>
@@ -15243,12 +15251,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>75</v>
@@ -15257,226 +15265,226 @@
         <v>75</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="F7" s="25">
-        <v>0.75660170702067897</v>
+        <v>3.9303555004891598E-2</v>
       </c>
       <c r="G7" s="25">
-        <v>0.75969129936928104</v>
+        <v>1.31677564368282E-2</v>
       </c>
       <c r="H7" s="25">
-        <v>0.75503194307717503</v>
+        <v>5.3508232335079703E-2</v>
       </c>
       <c r="I7" s="25">
-        <v>3.8846863800378384E-2</v>
+        <v>0.13147710482284464</v>
       </c>
       <c r="J7" s="25">
-        <v>1</v>
+        <v>4.4582143528500481E-3</v>
       </c>
       <c r="K7" s="24" t="s">
         <v>64</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="C8" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0.22652900000000001</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0.13123099999999999</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0.30361500000000002</v>
+      </c>
+      <c r="I8" s="25">
+        <v>8.0250000000000002E-2</v>
+      </c>
+      <c r="J8" s="25">
+        <v>0.484427</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D9" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="25">
-        <v>5.3919129157760398E-2</v>
-      </c>
-      <c r="G8" s="25">
-        <v>1.91178914732771E-2</v>
-      </c>
-      <c r="H8" s="25">
-        <v>0.102209060730101</v>
-      </c>
-      <c r="I8" s="25">
-        <v>0</v>
-      </c>
-      <c r="J8" s="25">
-        <v>0.211179463163612</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="24" t="s">
+      <c r="E9" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="25">
+        <v>0.46350361388260303</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0.36606922211586801</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0.51346670461683197</v>
+      </c>
+      <c r="I9" s="25">
+        <v>0.25081635797503737</v>
+      </c>
+      <c r="J9" s="25">
+        <v>0.70049914573605909</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D10" s="24" t="s">
         <v>80</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="25">
-        <v>0.69937206754739201</v>
-      </c>
-      <c r="G9" s="25">
-        <v>0.64835387108379905</v>
-      </c>
-      <c r="H9" s="25">
-        <v>0.81088616848663597</v>
-      </c>
-      <c r="I9" s="25">
-        <v>0.1325362710219545</v>
-      </c>
-      <c r="J9" s="25">
-        <v>0.97927774245456534</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>75</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>63</v>
       </c>
       <c r="F10" s="25">
-        <v>0.84299999999999997</v>
+        <v>0.94871156062892903</v>
       </c>
       <c r="G10" s="25">
-        <v>0.54700000000000004</v>
+        <v>0.90960021228892496</v>
       </c>
       <c r="H10" s="25">
-        <v>0.90100000000000002</v>
+        <v>0.97482192431543402</v>
       </c>
       <c r="I10" s="25">
-        <v>0.83599999999999997</v>
+        <v>0.74474173528843457</v>
       </c>
       <c r="J10" s="25">
-        <v>0.95699999999999996</v>
+        <v>1</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>104</v>
+        <v>261</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>105</v>
+        <v>262</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>63</v>
       </c>
       <c r="F11" s="25">
-        <v>0.82509452819824003</v>
+        <v>0.90531406409938897</v>
       </c>
       <c r="G11" s="25">
-        <v>0.82518341064452994</v>
+        <v>0.88886876689095196</v>
       </c>
       <c r="H11" s="25">
-        <v>0.82506958007813003</v>
+        <v>0.96401605412931901</v>
       </c>
       <c r="I11" s="25">
-        <v>0.51624794006347996</v>
+        <v>0.85205949507489365</v>
       </c>
       <c r="J11" s="25">
-        <v>0.93549575805664009</v>
+        <v>0.92881016198991695</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>109</v>
+        <v>271</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="F12" s="25">
-        <v>1.58137028151158E-2</v>
+        <v>0.51616381175673798</v>
       </c>
       <c r="G12" s="25">
-        <v>0</v>
+        <v>0.42501980927691901</v>
       </c>
       <c r="H12" s="25">
-        <v>5.04278233045563E-2</v>
+        <v>0.63761499758725304</v>
       </c>
       <c r="I12" s="25">
-        <v>0</v>
+        <v>0.38823164021374368</v>
       </c>
       <c r="J12" s="25">
-        <v>5.558443453546285E-2</v>
+        <v>0.83681040387826222</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>111</v>
+        <v>213</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>112</v>
+        <v>214</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>68</v>
@@ -15488,28 +15496,20 @@
         <v>70</v>
       </c>
       <c r="F13" s="25">
-        <v>6.9621851345804106E-2</v>
-      </c>
-      <c r="G13" s="25">
-        <v>3.7305276964449499E-3</v>
-      </c>
-      <c r="H13" s="25">
-        <v>0.12343034994066999</v>
-      </c>
-      <c r="I13" s="25">
-        <v>0</v>
-      </c>
-      <c r="J13" s="25">
-        <v>0.27601612605360509</v>
-      </c>
+        <v>4.1822999999999999E-2</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
       <c r="K13" s="24" t="s">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
         <v>114</v>
       </c>
@@ -15547,12 +15547,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>68</v>
@@ -15564,221 +15564,223 @@
         <v>92</v>
       </c>
       <c r="F15" s="25">
-        <v>3.4954439649673201E-2</v>
+        <v>2.7680605116541499E-2</v>
       </c>
       <c r="G15" s="25">
-        <v>1.12718736260514E-2</v>
+        <v>1.9382187510642301E-2</v>
       </c>
       <c r="H15" s="25">
-        <v>0.116227532217278</v>
+        <v>3.9084897505271103E-2</v>
       </c>
       <c r="I15" s="25">
-        <v>4.49604636240746E-3</v>
+        <v>0</v>
       </c>
       <c r="J15" s="25">
-        <v>0.12294914237208542</v>
+        <v>3.5804399167408914E-2</v>
       </c>
       <c r="K15" s="24" t="s">
         <v>64</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F16" s="25">
-        <v>0.873722</v>
+        <v>0.59312313237191705</v>
       </c>
       <c r="G16" s="25">
-        <v>0.71817600000000004</v>
+        <v>0.36209391117081502</v>
       </c>
       <c r="H16" s="25">
-        <v>0.89937199999999995</v>
+        <v>0.77253218884120201</v>
       </c>
       <c r="I16" s="25">
-        <v>0.75178800000000001</v>
+        <v>0.17003350305494477</v>
       </c>
       <c r="J16" s="25">
-        <v>0.97747600000000001</v>
+        <v>0.89595979417818572</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>63</v>
       </c>
       <c r="F17" s="25">
-        <v>0.759602069854736</v>
+        <v>0.81791215546365403</v>
       </c>
       <c r="G17" s="25">
-        <v>0.582133948802947</v>
+        <v>0.76178821830117804</v>
       </c>
       <c r="H17" s="25">
-        <v>0.91282397508621205</v>
-      </c>
-      <c r="I17" s="25"/>
+        <v>0.84876369880017499</v>
+      </c>
+      <c r="I17" s="25">
+        <v>0.51615353134764363</v>
+      </c>
       <c r="J17" s="25">
-        <v>0.91856878995895297</v>
+        <v>1</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>294</v>
+        <v>64</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
-        <v>126</v>
+        <v>257</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>127</v>
+        <v>258</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>63</v>
       </c>
       <c r="F18" s="25">
-        <v>0.426789527184808</v>
+        <v>0.933705800875825</v>
       </c>
       <c r="G18" s="25">
-        <v>6.8257538415569197E-2</v>
+        <v>0.91988075126731295</v>
       </c>
       <c r="H18" s="25">
-        <v>0.53821298555355901</v>
+        <v>0.94383387061761004</v>
       </c>
       <c r="I18" s="25">
-        <v>1.8499314576414825E-2</v>
+        <v>0.74763127512296879</v>
       </c>
       <c r="J18" s="25">
-        <v>0.99239397501651661</v>
+        <v>1</v>
       </c>
       <c r="K18" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="25">
+        <v>7.3372388275760703E-2</v>
+      </c>
+      <c r="G19" s="25">
+        <v>2.5088661402047099E-2</v>
+      </c>
+      <c r="H19" s="25">
+        <v>0.138069502810658</v>
+      </c>
+      <c r="I19" s="25">
+        <v>0</v>
+      </c>
+      <c r="J19" s="25">
+        <v>0.28070101799180136</v>
+      </c>
+      <c r="K19" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="L18" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="25">
-        <v>0.774013633365359</v>
-      </c>
-      <c r="G19" s="25">
-        <v>0.60348933381196301</v>
-      </c>
-      <c r="H19" s="25">
-        <v>0.855279949839863</v>
-      </c>
-      <c r="I19" s="25">
-        <v>0.45950801166300692</v>
-      </c>
-      <c r="J19" s="25">
-        <v>1</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>64</v>
-      </c>
       <c r="L19" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
-        <v>130</v>
+        <v>292</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>131</v>
+        <v>293</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>68</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="E20" s="24" t="s">
         <v>70</v>
       </c>
       <c r="F20" s="25">
-        <v>3.3841779400430497E-2</v>
+        <v>0.29203123712989298</v>
       </c>
       <c r="G20" s="25">
-        <v>1.5516878997370301E-2</v>
+        <v>0.20286436029936</v>
       </c>
       <c r="H20" s="25">
-        <v>4.6600604467467797E-2</v>
+        <v>0.51024357824163302</v>
       </c>
       <c r="I20" s="25">
-        <v>1.3840781058396118E-3</v>
+        <v>5.3687406463181951E-2</v>
       </c>
       <c r="J20" s="25">
-        <v>0.12152344989689824</v>
+        <v>0.6415452726903661</v>
       </c>
       <c r="K20" s="24" t="s">
         <v>64</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>75</v>
@@ -15790,171 +15792,169 @@
         <v>63</v>
       </c>
       <c r="F21" s="25">
-        <v>3.9303555004891598E-2</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="G21" s="25">
-        <v>1.31677564368282E-2</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="H21" s="25">
-        <v>5.3508232335079703E-2</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="I21" s="25">
-        <v>0.13147710482284464</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="J21" s="25">
-        <v>4.4582143528500481E-3</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C22" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="25">
+        <v>0.759602069854736</v>
+      </c>
+      <c r="G22" s="25">
+        <v>0.582133948802947</v>
+      </c>
+      <c r="H22" s="25">
+        <v>0.91282397508621205</v>
+      </c>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25">
+        <v>0.91856878995895297</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="L22" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="25">
+        <v>0.774013633365359</v>
+      </c>
+      <c r="G23" s="25">
+        <v>0.60348933381196301</v>
+      </c>
+      <c r="H23" s="25">
+        <v>0.855279949839863</v>
+      </c>
+      <c r="I23" s="25">
+        <v>0.45950801166300692</v>
+      </c>
+      <c r="J23" s="25">
+        <v>1</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D24" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E24" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="25">
-        <v>1.4336233771410301E-2</v>
-      </c>
-      <c r="G22" s="25">
-        <v>3.6495012584715002E-3</v>
-      </c>
-      <c r="H22" s="25">
-        <v>2.6026364290880899E-2</v>
-      </c>
-      <c r="I22" s="25">
-        <v>4.3248277437546272E-3</v>
-      </c>
-      <c r="J22" s="25">
-        <v>2.9566728680881664E-2</v>
-      </c>
-      <c r="K22" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L22" s="24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="25">
-        <v>9.2682924270630004E-2</v>
-      </c>
-      <c r="G23" s="25">
-        <v>1.7772512435913001E-2</v>
-      </c>
-      <c r="H23" s="25">
-        <v>0.15584415435790999</v>
-      </c>
-      <c r="I23" s="25">
-        <v>2.2947926521300999E-2</v>
-      </c>
-      <c r="J23" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="K23" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="L23" s="24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="24" t="s">
+      <c r="F24" s="25">
+        <v>0.72179219853511101</v>
+      </c>
+      <c r="G24" s="25">
+        <v>0.51360217647046902</v>
+      </c>
+      <c r="H24" s="25">
+        <v>0.800301854024701</v>
+      </c>
+      <c r="I24" s="25">
+        <v>0.28709279758293615</v>
+      </c>
+      <c r="J24" s="25">
+        <v>0.93952876774462046</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="L24" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="25">
-        <v>0.26586092721142901</v>
-      </c>
-      <c r="G24" s="25">
-        <v>0.11371917761356599</v>
-      </c>
-      <c r="H24" s="25">
-        <v>0.31945237018900102</v>
-      </c>
-      <c r="I24" s="25">
-        <v>3.0965715628442992E-3</v>
-      </c>
-      <c r="J24" s="25">
-        <v>0.79997919045932309</v>
-      </c>
-      <c r="K24" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L24" s="24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>92</v>
-      </c>
       <c r="F25" s="25">
-        <v>0.72179219853511101</v>
+        <v>0.88220039488277702</v>
       </c>
       <c r="G25" s="25">
-        <v>0.51360217647046902</v>
+        <v>0.75395047082215305</v>
       </c>
       <c r="H25" s="25">
-        <v>0.800301854024701</v>
+        <v>0.962226147858945</v>
       </c>
       <c r="I25" s="25">
-        <v>0.28709279758293615</v>
+        <v>0.55055482143840462</v>
       </c>
       <c r="J25" s="25">
-        <v>0.93952876774462046</v>
+        <v>1</v>
       </c>
       <c r="K25" s="24" t="s">
         <v>64</v>
@@ -15963,36 +15963,36 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E26" s="24" t="s">
         <v>63</v>
       </c>
       <c r="F26" s="25">
-        <v>0.88220039488277702</v>
+        <v>0.56025432769435901</v>
       </c>
       <c r="G26" s="25">
-        <v>0.75395047082215305</v>
+        <v>0.42963490242678398</v>
       </c>
       <c r="H26" s="25">
-        <v>0.962226147858945</v>
+        <v>0.62240296001971995</v>
       </c>
       <c r="I26" s="25">
-        <v>0.55055482143840462</v>
+        <v>0.14867842245918733</v>
       </c>
       <c r="J26" s="25">
-        <v>1</v>
+        <v>0.85831573302971131</v>
       </c>
       <c r="K26" s="24" t="s">
         <v>64</v>
@@ -16001,202 +16001,194 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
-        <v>152</v>
+        <v>295</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>153</v>
+        <v>296</v>
       </c>
       <c r="C27" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="25">
+        <v>0.74894899999999998</v>
+      </c>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="L27" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="25">
+        <v>0.87549200000000005</v>
+      </c>
+      <c r="G28" s="25">
+        <v>0.88192000000000004</v>
+      </c>
+      <c r="H28" s="25">
+        <v>0.87463900000000006</v>
+      </c>
+      <c r="I28" s="25">
+        <v>0.549099</v>
+      </c>
+      <c r="J28" s="25">
+        <v>0.94388099999999997</v>
+      </c>
+      <c r="K28" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="L28" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="25">
+        <v>0.76829607426848701</v>
+      </c>
+      <c r="G29" s="25">
+        <v>0.72440274607324895</v>
+      </c>
+      <c r="H29" s="25">
+        <v>0.85508000952780305</v>
+      </c>
+      <c r="I29" s="25">
+        <v>0.60194057886156704</v>
+      </c>
+      <c r="J29" s="25">
+        <v>0.93041062742096858</v>
+      </c>
+      <c r="K29" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="L29" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="24" t="s">
+      <c r="D30" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="25">
-        <v>0.196696845884889</v>
-      </c>
-      <c r="G27" s="25">
-        <v>0.12667464382589899</v>
-      </c>
-      <c r="H27" s="25">
-        <v>0.28361035239691601</v>
-      </c>
-      <c r="I27" s="25">
-        <v>3.2809893258587436E-2</v>
-      </c>
-      <c r="J27" s="25">
-        <v>0.52264213617937738</v>
-      </c>
-      <c r="K27" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L27" s="24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="25">
-        <v>0.122781931549655</v>
-      </c>
-      <c r="G28" s="25">
-        <v>3.62623608240508E-2</v>
-      </c>
-      <c r="H28" s="25">
-        <v>0.23581142010728401</v>
-      </c>
-      <c r="I28" s="25">
-        <v>0</v>
-      </c>
-      <c r="J28" s="25">
-        <v>0.52019565808587909</v>
-      </c>
-      <c r="K28" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="L28" s="24" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" s="24" t="s">
+      <c r="F30" s="25">
+        <v>0.38238697691123102</v>
+      </c>
+      <c r="G30" s="25">
+        <v>0.29079100020966298</v>
+      </c>
+      <c r="H30" s="25">
+        <v>0.56171171364266304</v>
+      </c>
+      <c r="I30" s="25">
+        <v>7.7234100486796936E-2</v>
+      </c>
+      <c r="J30" s="25">
+        <v>0.73601061729338735</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="L30" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="24" t="s">
+      <c r="D31" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F29" s="25">
-        <v>2.7680605116541499E-2</v>
-      </c>
-      <c r="G29" s="25">
-        <v>1.9382187510642301E-2</v>
-      </c>
-      <c r="H29" s="25">
-        <v>3.9084897505271103E-2</v>
-      </c>
-      <c r="I29" s="25">
-        <v>0</v>
-      </c>
-      <c r="J29" s="25">
-        <v>3.5804399167408914E-2</v>
-      </c>
-      <c r="K29" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L29" s="24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="25">
-        <v>0.25772748449184801</v>
-      </c>
-      <c r="G30" s="25">
-        <v>0.14793012359073701</v>
-      </c>
-      <c r="H30" s="25">
-        <v>0.406182069680873</v>
-      </c>
-      <c r="I30" s="25">
-        <v>2.4892879670171896E-3</v>
-      </c>
-      <c r="J30" s="25">
-        <v>0.64308362347211401</v>
-      </c>
-      <c r="K30" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="L30" s="24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>70</v>
-      </c>
       <c r="F31" s="25">
-        <v>0.115142478013269</v>
+        <v>0.15516443977226599</v>
       </c>
       <c r="G31" s="25">
-        <v>7.3241200345024196E-2</v>
+        <v>9.5159536166650294E-2</v>
       </c>
       <c r="H31" s="25">
-        <v>0.20813852275734901</v>
+        <v>0.34726754731056803</v>
       </c>
       <c r="I31" s="25">
-        <v>6.5448840950945702E-3</v>
+        <v>4.0104009152451331E-3</v>
       </c>
       <c r="J31" s="25">
-        <v>0.42064667172345599</v>
+        <v>0.54348738333104774</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L31" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>124</v>
@@ -16208,163 +16200,171 @@
         <v>70</v>
       </c>
       <c r="F32" s="25">
-        <v>0.22652900000000001</v>
+        <v>0.37550213888795198</v>
       </c>
       <c r="G32" s="25">
-        <v>0.13123099999999999</v>
+        <v>0.100272711742092</v>
       </c>
       <c r="H32" s="25">
-        <v>0.30361500000000002</v>
+        <v>0.51250375357090805</v>
       </c>
       <c r="I32" s="25">
-        <v>8.0250000000000002E-2</v>
+        <v>1.1737202985995683E-2</v>
       </c>
       <c r="J32" s="25">
-        <v>0.484427</v>
+        <v>0.9456514730555815</v>
       </c>
       <c r="K32" s="24" t="s">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="L32" s="24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E33" s="24" t="s">
         <v>63</v>
       </c>
       <c r="F33" s="25">
-        <v>0.56025432769435901</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="G33" s="25">
-        <v>0.42963490242678398</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="H33" s="25">
-        <v>0.62240296001971995</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="I33" s="25">
-        <v>0.14867842245918733</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="J33" s="25">
-        <v>0.85831573302971131</v>
+        <v>1</v>
       </c>
       <c r="K33" s="24" t="s">
-        <v>64</v>
+        <v>226</v>
       </c>
       <c r="L33" s="24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>296</v>
+        <v>251</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="F34" s="25">
-        <v>0.74894899999999998</v>
-      </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
+        <v>0.54748192271982798</v>
+      </c>
+      <c r="G34" s="25">
+        <v>0.44182576796289202</v>
+      </c>
+      <c r="H34" s="25">
+        <v>0.58805045297577596</v>
+      </c>
+      <c r="I34" s="25">
+        <v>0.24061877692729899</v>
+      </c>
+      <c r="J34" s="25">
+        <v>0.94441433321453394</v>
+      </c>
       <c r="K34" s="24" t="s">
-        <v>297</v>
+        <v>64</v>
       </c>
       <c r="L34" s="24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
-        <v>169</v>
+        <v>266</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>170</v>
+        <v>267</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F35" s="25">
-        <v>0.87549200000000005</v>
+        <v>0.44627397280720799</v>
       </c>
       <c r="G35" s="25">
-        <v>0.88192000000000004</v>
+        <v>0.25868796594131699</v>
       </c>
       <c r="H35" s="25">
-        <v>0.87463900000000006</v>
+        <v>0.53905698443965</v>
       </c>
       <c r="I35" s="25">
-        <v>0.549099</v>
+        <v>0.19039219203286656</v>
       </c>
       <c r="J35" s="25">
-        <v>0.94388099999999997</v>
+        <v>0.87949824918489561</v>
       </c>
       <c r="K35" s="24" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="L35" s="24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
-        <v>172</v>
+        <v>89</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="F36" s="25">
-        <v>0.41501956937710299</v>
+        <v>5.3919129157760398E-2</v>
       </c>
       <c r="G36" s="25">
-        <v>0.412198252650613</v>
+        <v>1.91178914732771E-2</v>
       </c>
       <c r="H36" s="25">
-        <v>0.41537652177308598</v>
+        <v>0.102209060730101</v>
       </c>
       <c r="I36" s="25">
-        <v>0.251163658373381</v>
+        <v>0</v>
       </c>
       <c r="J36" s="25">
-        <v>0.72509287621852181</v>
+        <v>0.211179463163612</v>
       </c>
       <c r="K36" s="24" t="s">
         <v>71</v>
@@ -16373,234 +16373,232 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>68</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="F37" s="25">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="G37" s="25"/>
+        <v>1.4336233771410301E-2</v>
+      </c>
+      <c r="G37" s="25">
+        <v>3.6495012584715002E-3</v>
+      </c>
       <c r="H37" s="25">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
+        <v>2.6026364290880899E-2</v>
+      </c>
+      <c r="I37" s="25">
+        <v>4.3248277437546272E-3</v>
+      </c>
+      <c r="J37" s="25">
+        <v>2.9566728680881664E-2</v>
+      </c>
       <c r="K37" s="24" t="s">
-        <v>176</v>
+        <v>64</v>
       </c>
       <c r="L37" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>70</v>
       </c>
       <c r="F38" s="25">
-        <v>0.59312313237191705</v>
+        <v>0.196696845884889</v>
       </c>
       <c r="G38" s="25">
-        <v>0.36209391117081502</v>
+        <v>0.12667464382589899</v>
       </c>
       <c r="H38" s="25">
-        <v>0.77253218884120201</v>
+        <v>0.28361035239691601</v>
       </c>
       <c r="I38" s="25">
-        <v>0.17003350305494477</v>
+        <v>3.2809893258587436E-2</v>
       </c>
       <c r="J38" s="25">
-        <v>0.89595979417818572</v>
+        <v>0.52264213617937738</v>
       </c>
       <c r="K38" s="24" t="s">
         <v>64</v>
       </c>
       <c r="L38" s="24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E39" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="25">
+        <v>0.41501956937710299</v>
+      </c>
+      <c r="G39" s="25">
+        <v>0.412198252650613</v>
+      </c>
+      <c r="H39" s="25">
+        <v>0.41537652177308598</v>
+      </c>
+      <c r="I39" s="25">
+        <v>0.251163658373381</v>
+      </c>
+      <c r="J39" s="25">
+        <v>0.72509287621852181</v>
+      </c>
+      <c r="K39" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="L39" s="24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="25">
+        <v>0.141898</v>
+      </c>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="L40" s="24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" s="25">
+        <v>0.873722</v>
+      </c>
+      <c r="G41" s="25">
+        <v>0.71817600000000004</v>
+      </c>
+      <c r="H41" s="25">
+        <v>0.89937199999999995</v>
+      </c>
+      <c r="I41" s="25">
+        <v>0.75178800000000001</v>
+      </c>
+      <c r="J41" s="25">
+        <v>0.97747600000000001</v>
+      </c>
+      <c r="K41" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="L41" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F39" s="25">
-        <v>0.76829607426848701</v>
-      </c>
-      <c r="G39" s="25">
-        <v>0.72440274607324895</v>
-      </c>
-      <c r="H39" s="25">
-        <v>0.85508000952780305</v>
-      </c>
-      <c r="I39" s="25">
-        <v>0.60194057886156704</v>
-      </c>
-      <c r="J39" s="25">
-        <v>0.93041062742096858</v>
-      </c>
-      <c r="K39" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L39" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" s="25">
+      <c r="F42" s="25">
         <v>1.73337474800241E-2</v>
       </c>
-      <c r="G40" s="25">
+      <c r="G42" s="25">
         <v>8.8336734737943096E-3</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H42" s="25">
         <v>3.7674248010301101E-2</v>
       </c>
-      <c r="I40" s="25">
+      <c r="I42" s="25">
         <v>2.4371933883378955E-3</v>
       </c>
-      <c r="J40" s="25">
+      <c r="J42" s="25">
         <v>4.9019278866064449E-2</v>
       </c>
-      <c r="K40" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L40" s="24" t="s">
+      <c r="K42" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="L42" s="24" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F41" s="25">
-        <v>0.38238697691123102</v>
-      </c>
-      <c r="G41" s="25">
-        <v>0.29079100020966298</v>
-      </c>
-      <c r="H41" s="25">
-        <v>0.56171171364266304</v>
-      </c>
-      <c r="I41" s="25">
-        <v>7.7234100486796936E-2</v>
-      </c>
-      <c r="J41" s="25">
-        <v>0.73601061729338735</v>
-      </c>
-      <c r="K41" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L41" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="F42" s="25">
-        <v>0.15516443977226599</v>
-      </c>
-      <c r="G42" s="25">
-        <v>9.5159536166650294E-2</v>
-      </c>
-      <c r="H42" s="25">
-        <v>0.34726754731056803</v>
-      </c>
-      <c r="I42" s="25">
-        <v>4.0104009152451331E-3</v>
-      </c>
-      <c r="J42" s="25">
-        <v>0.54348738333104774</v>
-      </c>
-      <c r="K42" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L42" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="24" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>83</v>
@@ -16609,36 +16607,36 @@
         <v>83</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F43" s="25">
-        <v>0.733188548301553</v>
+        <v>0.10419735033642</v>
       </c>
       <c r="G43" s="25">
-        <v>0.70129754582137005</v>
+        <v>4.26864008449057E-2</v>
       </c>
       <c r="H43" s="25">
-        <v>0.76704174495557897</v>
+        <v>0.21899850520983599</v>
       </c>
       <c r="I43" s="25">
-        <v>0.56464449733036615</v>
+        <v>3.0116140358084748E-3</v>
       </c>
       <c r="J43" s="25">
-        <v>0.95643429203844554</v>
+        <v>0.48955857254157403</v>
       </c>
       <c r="K43" s="24" t="s">
         <v>71</v>
       </c>
       <c r="L43" s="24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="24" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
       <c r="C44" s="24" t="s">
         <v>68</v>
@@ -16647,36 +16645,36 @@
         <v>91</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F44" s="25">
-        <v>7.6701263864730002E-2</v>
+        <v>7.4346123288838897E-2</v>
       </c>
       <c r="G44" s="25">
-        <v>4.4997445181554498E-2</v>
+        <v>3.2997105782424797E-2</v>
       </c>
       <c r="H44" s="25">
-        <v>0.169620008133886</v>
+        <v>0.120654898990849</v>
       </c>
       <c r="I44" s="25">
-        <v>0</v>
+        <v>9.8965364702996161E-3</v>
       </c>
       <c r="J44" s="25">
-        <v>0.27155221631722154</v>
+        <v>0.23019831095649992</v>
       </c>
       <c r="K44" s="24" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L44" s="24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="24" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="C45" s="24" t="s">
         <v>68</v>
@@ -16685,184 +16683,188 @@
         <v>91</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="F45" s="25">
-        <v>4.2741478784167002E-2</v>
+        <v>0.18368547356458001</v>
       </c>
       <c r="G45" s="25">
-        <v>9.3559008947285503E-3</v>
+        <v>5.2259643490850403E-2</v>
       </c>
       <c r="H45" s="25">
-        <v>7.2906449647295299E-2</v>
+        <v>0.29433392280653298</v>
       </c>
       <c r="I45" s="25">
-        <v>2.9090616372118884E-3</v>
+        <v>3.4244049259718285E-3</v>
       </c>
       <c r="J45" s="25">
-        <v>0.12556441142189825</v>
+        <v>0.43389214315719027</v>
       </c>
       <c r="K45" s="24" t="s">
         <v>64</v>
       </c>
       <c r="L45" s="24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="24" t="s">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="F46" s="25">
-        <v>0.37550213888795198</v>
+        <v>0.26259506962219098</v>
       </c>
       <c r="G46" s="25">
-        <v>0.100272711742092</v>
+        <v>0.212001090945138</v>
       </c>
       <c r="H46" s="25">
-        <v>0.51250375357090805</v>
+        <v>0.42264847855056298</v>
       </c>
       <c r="I46" s="25">
-        <v>1.1737202985995683E-2</v>
+        <v>8.495179548812648E-2</v>
       </c>
       <c r="J46" s="25">
-        <v>0.9456514730555815</v>
+        <v>0.50806353571963569</v>
       </c>
       <c r="K46" s="24" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L46" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="24" t="s">
-        <v>197</v>
+        <v>259</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="C47" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" s="25">
+        <v>0.312277469956522</v>
+      </c>
+      <c r="G47" s="25">
+        <v>0.108909067987379</v>
+      </c>
+      <c r="H47" s="25">
+        <v>0.55985467776216402</v>
+      </c>
+      <c r="I47" s="25">
+        <v>0</v>
+      </c>
+      <c r="J47" s="25">
+        <v>0.80384698723132364</v>
+      </c>
+      <c r="K47" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="L47" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="C48" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D48" s="24" t="s">
         <v>80</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F47" s="25">
-        <v>0.81791215546365403</v>
-      </c>
-      <c r="G47" s="25">
-        <v>0.76178821830117804</v>
-      </c>
-      <c r="H47" s="25">
-        <v>0.84876369880017499</v>
-      </c>
-      <c r="I47" s="25">
-        <v>0.51615353134764363</v>
-      </c>
-      <c r="J47" s="25">
-        <v>1</v>
-      </c>
-      <c r="K47" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L47" s="24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>62</v>
       </c>
       <c r="E48" s="24" t="s">
         <v>70</v>
       </c>
       <c r="F48" s="25">
-        <v>0.19472616195678999</v>
+        <v>0.224</v>
       </c>
       <c r="G48" s="25">
-        <v>0.12470587730408</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="H48" s="25">
-        <v>0.24777183532715</v>
-      </c>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
+        <v>0.376</v>
+      </c>
+      <c r="I48" s="25">
+        <v>3.7299999999999998E-3</v>
+      </c>
+      <c r="J48" s="25">
+        <v>0.70199999999999996</v>
+      </c>
       <c r="K48" s="24" t="s">
-        <v>201</v>
+        <v>287</v>
       </c>
       <c r="L48" s="24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="F49" s="25">
-        <v>8.8949211256357005E-2</v>
+        <v>0.25772748449184801</v>
       </c>
       <c r="G49" s="25">
-        <v>1.0739332645251501E-2</v>
+        <v>0.14793012359073701</v>
       </c>
       <c r="H49" s="25">
-        <v>0.174585800137596</v>
+        <v>0.406182069680873</v>
       </c>
       <c r="I49" s="25">
-        <v>0</v>
+        <v>2.4892879670171896E-3</v>
       </c>
       <c r="J49" s="25">
-        <v>0.33713891649347077</v>
+        <v>0.64308362347211401</v>
       </c>
       <c r="K49" s="24" t="s">
         <v>71</v>
       </c>
       <c r="L49" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="24" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="C50" s="24" t="s">
         <v>83</v>
@@ -16871,164 +16873,180 @@
         <v>83</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="F50" s="25">
-        <v>0.48918290572575801</v>
+        <v>0.733188548301553</v>
       </c>
       <c r="G50" s="25">
-        <v>0.34472647095679199</v>
+        <v>0.70129754582137005</v>
       </c>
       <c r="H50" s="25">
-        <v>0.56805966306515598</v>
+        <v>0.76704174495557897</v>
       </c>
       <c r="I50" s="25">
-        <v>0.18258216399079893</v>
+        <v>0.56464449733036615</v>
       </c>
       <c r="J50" s="25">
-        <v>0.90341000928282555</v>
+        <v>0.95643429203844554</v>
       </c>
       <c r="K50" s="24" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L50" s="24" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="24" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E51" s="24" t="s">
         <v>70</v>
       </c>
       <c r="F51" s="25">
-        <v>4.0654205610000001E-2</v>
-      </c>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
+        <v>3.3841779400430497E-2</v>
+      </c>
+      <c r="G51" s="25">
+        <v>1.5516878997370301E-2</v>
+      </c>
+      <c r="H51" s="25">
+        <v>4.6600604467467797E-2</v>
+      </c>
+      <c r="I51" s="25">
+        <v>1.3840781058396118E-3</v>
+      </c>
+      <c r="J51" s="25">
+        <v>0.12152344989689824</v>
+      </c>
       <c r="K51" s="24" t="s">
-        <v>209</v>
+        <v>64</v>
       </c>
       <c r="L51" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="24" t="s">
-        <v>210</v>
+        <v>278</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>211</v>
+        <v>279</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>91</v>
+        <v>280</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F52" s="25">
-        <v>6.2439020000000005E-2</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
       <c r="K52" s="24" t="s">
-        <v>212</v>
+        <v>281</v>
       </c>
       <c r="L52" s="24" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="24" t="s">
-        <v>213</v>
+        <v>66</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>214</v>
+        <v>67</v>
       </c>
       <c r="C53" s="24" t="s">
         <v>68</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="E53" s="24" t="s">
         <v>70</v>
       </c>
       <c r="F53" s="25">
-        <v>4.1822999999999999E-2</v>
-      </c>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
+        <v>0.24030772688511501</v>
+      </c>
+      <c r="G53" s="25">
+        <v>1.87528342558019E-2</v>
+      </c>
+      <c r="H53" s="25">
+        <v>0.32634722077915801</v>
+      </c>
+      <c r="I53" s="25">
+        <v>0</v>
+      </c>
+      <c r="J53" s="25">
+        <v>0.68611199252001431</v>
+      </c>
       <c r="K53" s="24" t="s">
-        <v>215</v>
+        <v>71</v>
       </c>
       <c r="L53" s="24" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F54" s="25">
-        <v>0.10419735033642</v>
+        <v>0.84859092913899103</v>
       </c>
       <c r="G54" s="25">
-        <v>4.26864008449057E-2</v>
+        <v>0.77845250561664503</v>
       </c>
       <c r="H54" s="25">
-        <v>0.21899850520983599</v>
+        <v>0.90997850261011204</v>
       </c>
       <c r="I54" s="25">
-        <v>3.0116140358084748E-3</v>
+        <v>0.5406450230822013</v>
       </c>
       <c r="J54" s="25">
-        <v>0.48955857254157403</v>
+        <v>1</v>
       </c>
       <c r="K54" s="24" t="s">
         <v>71</v>
       </c>
       <c r="L54" s="24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
-        <v>219</v>
+        <v>126</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>220</v>
+        <v>127</v>
       </c>
       <c r="C55" s="24" t="s">
         <v>75</v>
@@ -17037,110 +17055,112 @@
         <v>75</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="F55" s="25">
-        <v>0.375771349640458</v>
+        <v>0.426789527184808</v>
       </c>
       <c r="G55" s="25">
-        <v>0.147194205217063</v>
+        <v>6.8257538415569197E-2</v>
       </c>
       <c r="H55" s="25">
-        <v>0.50611497323655896</v>
+        <v>0.53821298555355901</v>
       </c>
       <c r="I55" s="25">
-        <v>8.0751580982409171E-2</v>
+        <v>1.8499314576414825E-2</v>
       </c>
       <c r="J55" s="25">
-        <v>0.967605734566237</v>
+        <v>0.99239397501651661</v>
       </c>
       <c r="K55" s="24" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L55" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="24" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F56" s="25">
-        <v>0.90100000000000002</v>
+        <v>0.115142478013269</v>
       </c>
       <c r="G56" s="25">
-        <v>0.77400000000000002</v>
+        <v>7.3241200345024196E-2</v>
       </c>
       <c r="H56" s="25">
-        <v>0.96099999999999997</v>
+        <v>0.20813852275734901</v>
       </c>
       <c r="I56" s="25">
-        <v>0.90100000000000002</v>
+        <v>6.5448840950945702E-3</v>
       </c>
       <c r="J56" s="25">
-        <v>1</v>
+        <v>0.42064667172345599</v>
       </c>
       <c r="K56" s="24" t="s">
-        <v>226</v>
+        <v>71</v>
       </c>
       <c r="L56" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="24" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="F57" s="25">
-        <v>0.51014724937087896</v>
+        <v>7.6701263864730002E-2</v>
       </c>
       <c r="G57" s="25">
-        <v>0.53209053731469003</v>
+        <v>4.4997445181554498E-2</v>
       </c>
       <c r="H57" s="25">
-        <v>0.42634380844118303</v>
+        <v>0.169620008133886</v>
       </c>
       <c r="I57" s="25">
-        <v>6.9626024316316315E-2</v>
-      </c>
-      <c r="J57" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="25">
+        <v>0.27155221631722154</v>
+      </c>
       <c r="K57" s="24" t="s">
         <v>64</v>
       </c>
       <c r="L57" s="24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="24" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="C58" s="24" t="s">
         <v>68</v>
@@ -17152,109 +17172,109 @@
         <v>70</v>
       </c>
       <c r="F58" s="25">
-        <v>0.46350361388260303</v>
+        <v>4.2741478784167002E-2</v>
       </c>
       <c r="G58" s="25">
-        <v>0.36606922211586801</v>
+        <v>9.3559008947285503E-3</v>
       </c>
       <c r="H58" s="25">
-        <v>0.51346670461683197</v>
+        <v>7.2906449647295299E-2</v>
       </c>
       <c r="I58" s="25">
-        <v>0.25081635797503737</v>
+        <v>2.9090616372118884E-3</v>
       </c>
       <c r="J58" s="25">
-        <v>0.70049914573605909</v>
+        <v>0.12556441142189825</v>
       </c>
       <c r="K58" s="24" t="s">
         <v>64</v>
       </c>
       <c r="L58" s="24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="24" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>232</v>
+        <v>273</v>
       </c>
       <c r="C59" s="24" t="s">
         <v>68</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="F59" s="25">
-        <v>7.4346123288838897E-2</v>
+        <v>7.2750000000000002E-3</v>
       </c>
       <c r="G59" s="25">
-        <v>3.2997105782424797E-2</v>
+        <v>2.4699999999999999E-4</v>
       </c>
       <c r="H59" s="25">
-        <v>0.120654898990849</v>
+        <v>3.5258999999999999E-2</v>
       </c>
       <c r="I59" s="25">
-        <v>9.8965364702996161E-3</v>
+        <v>0</v>
       </c>
       <c r="J59" s="25">
-        <v>0.23019831095649992</v>
+        <v>3.4610000000000002E-2</v>
       </c>
       <c r="K59" s="24" t="s">
-        <v>71</v>
+        <v>274</v>
       </c>
       <c r="L59" s="24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="24" t="s">
-        <v>233</v>
+        <v>154</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E60" s="24" t="s">
         <v>63</v>
       </c>
       <c r="F60" s="25">
-        <v>0.94871156062892903</v>
+        <v>0.122781931549655</v>
       </c>
       <c r="G60" s="25">
-        <v>0.90960021228892496</v>
+        <v>3.62623608240508E-2</v>
       </c>
       <c r="H60" s="25">
-        <v>0.97482192431543402</v>
+        <v>0.23581142010728401</v>
       </c>
       <c r="I60" s="25">
-        <v>0.74474173528843457</v>
+        <v>0</v>
       </c>
       <c r="J60" s="25">
-        <v>1</v>
+        <v>0.52019565808587909</v>
       </c>
       <c r="K60" s="24" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L60" s="24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="24" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="C61" s="24" t="s">
         <v>68</v>
@@ -17266,33 +17286,25 @@
         <v>92</v>
       </c>
       <c r="F61" s="25">
-        <v>0.18368547356458001</v>
-      </c>
-      <c r="G61" s="25">
-        <v>5.2259643490850403E-2</v>
-      </c>
-      <c r="H61" s="25">
-        <v>0.29433392280653298</v>
-      </c>
-      <c r="I61" s="25">
-        <v>3.4244049259718285E-3</v>
-      </c>
-      <c r="J61" s="25">
-        <v>0.43389214315719027</v>
-      </c>
+        <v>6.2439020000000005E-2</v>
+      </c>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
       <c r="K61" s="24" t="s">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c r="L61" s="24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="24" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C62" s="24" t="s">
         <v>68</v>
@@ -17301,286 +17313,288 @@
         <v>69</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="F62" s="25">
-        <v>0.141898</v>
+        <v>0.18497717380523701</v>
       </c>
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
       <c r="J62" s="25"/>
       <c r="K62" s="24" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L62" s="24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="24" t="s">
-        <v>240</v>
+        <v>111</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>241</v>
+        <v>112</v>
       </c>
       <c r="C63" s="24" t="s">
         <v>68</v>
       </c>
       <c r="D63" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F63" s="25">
+        <v>6.9621851345804106E-2</v>
+      </c>
+      <c r="G63" s="25">
+        <v>3.7305276964449499E-3</v>
+      </c>
+      <c r="H63" s="25">
+        <v>0.12343034994066999</v>
+      </c>
+      <c r="I63" s="25">
+        <v>0</v>
+      </c>
+      <c r="J63" s="25">
+        <v>0.27601612605360509</v>
+      </c>
+      <c r="K63" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="L63" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F64" s="25">
+        <v>0.26586092721142901</v>
+      </c>
+      <c r="G64" s="25">
+        <v>0.11371917761356599</v>
+      </c>
+      <c r="H64" s="25">
+        <v>0.31945237018900102</v>
+      </c>
+      <c r="I64" s="25">
+        <v>3.0965715628442992E-3</v>
+      </c>
+      <c r="J64" s="25">
+        <v>0.79997919045932309</v>
+      </c>
+      <c r="K64" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="L64" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E63" s="24" t="s">
+      <c r="E65" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F65" s="25">
+        <v>5.0093922363536797E-2</v>
+      </c>
+      <c r="G65" s="25">
+        <v>1.5028650632380401E-2</v>
+      </c>
+      <c r="H65" s="25">
+        <v>0.123036584548974</v>
+      </c>
+      <c r="I65" s="25">
+        <v>0</v>
+      </c>
+      <c r="J65" s="25">
+        <v>0.20891284469005095</v>
+      </c>
+      <c r="K65" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="L65" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F63" s="25">
-        <v>0.18497717380523701</v>
-      </c>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="L63" s="24" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="B64" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="C64" s="24" t="s">
+      <c r="F66" s="25">
+        <v>0.82509452819824003</v>
+      </c>
+      <c r="G66" s="25">
+        <v>0.82518341064452994</v>
+      </c>
+      <c r="H66" s="25">
+        <v>0.82506958007813003</v>
+      </c>
+      <c r="I66" s="25">
+        <v>0.51624794006347996</v>
+      </c>
+      <c r="J66" s="25">
+        <v>0.93549575805664009</v>
+      </c>
+      <c r="K66" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="L66" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C67" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D64" s="24" t="s">
+      <c r="D67" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E64" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="F64" s="25">
-        <v>5.7481889049834402E-3</v>
-      </c>
-      <c r="G64" s="25">
-        <v>2.4917012410843502E-3</v>
-      </c>
-      <c r="H64" s="25">
-        <v>1.39303842939649E-2</v>
-      </c>
-      <c r="I64" s="25">
+      <c r="E67" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F67" s="25">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="L67" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F68" s="25">
+        <v>8.8949211256357005E-2</v>
+      </c>
+      <c r="G68" s="25">
+        <v>1.0739332645251501E-2</v>
+      </c>
+      <c r="H68" s="25">
+        <v>0.174585800137596</v>
+      </c>
+      <c r="I68" s="25">
         <v>0</v>
       </c>
-      <c r="J64" s="25">
-        <v>2.1169549736831772E-2</v>
-      </c>
-      <c r="K64" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L64" s="24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="B65" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D65" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E65" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F65" s="25">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="G65" s="25">
-        <v>0.69799999999999995</v>
-      </c>
-      <c r="H65" s="25">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="I65" s="25">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="J65" s="25">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="K65" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="L65" s="24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E66" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F66" s="25">
-        <v>5.0093922363536797E-2</v>
-      </c>
-      <c r="G66" s="25">
-        <v>1.5028650632380401E-2</v>
-      </c>
-      <c r="H66" s="25">
-        <v>0.123036584548974</v>
-      </c>
-      <c r="I66" s="25">
-        <v>0</v>
-      </c>
-      <c r="J66" s="25">
-        <v>0.20891284469005095</v>
-      </c>
-      <c r="K66" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L66" s="24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="B67" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D67" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E67" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F67" s="25">
-        <v>0.54748192271982798</v>
-      </c>
-      <c r="G67" s="25">
-        <v>0.44182576796289202</v>
-      </c>
-      <c r="H67" s="25">
-        <v>0.58805045297577596</v>
-      </c>
-      <c r="I67" s="25">
-        <v>0.24061877692729899</v>
-      </c>
-      <c r="J67" s="25">
-        <v>0.94441433321453394</v>
-      </c>
-      <c r="K67" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L67" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="B68" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D68" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E68" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="F68" s="25">
-        <v>0.26259506962219098</v>
-      </c>
-      <c r="G68" s="25">
-        <v>0.212001090945138</v>
-      </c>
-      <c r="H68" s="25">
-        <v>0.42264847855056298</v>
-      </c>
-      <c r="I68" s="25">
-        <v>8.495179548812648E-2</v>
-      </c>
       <c r="J68" s="25">
-        <v>0.50806353571963569</v>
+        <v>0.33713891649347077</v>
       </c>
       <c r="K68" s="24" t="s">
         <v>71</v>
       </c>
       <c r="L68" s="24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="24" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F69" s="25">
-        <v>0.77078371656368805</v>
+        <v>0.375771349640458</v>
       </c>
       <c r="G69" s="25">
-        <v>0.72964334697309596</v>
+        <v>0.147194205217063</v>
       </c>
       <c r="H69" s="25">
-        <v>0.82672279650681302</v>
+        <v>0.50611497323655896</v>
       </c>
       <c r="I69" s="25">
-        <v>0.60290970987365888</v>
+        <v>8.0751580982409171E-2</v>
       </c>
       <c r="J69" s="25">
-        <v>0.96936410369026016</v>
+        <v>0.967605734566237</v>
       </c>
       <c r="K69" s="24" t="s">
         <v>64</v>
       </c>
       <c r="L69" s="24" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="24" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="C70" s="24" t="s">
         <v>79</v>
@@ -17592,109 +17606,101 @@
         <v>63</v>
       </c>
       <c r="F70" s="25">
-        <v>0.933705800875825</v>
+        <v>0.39900519205074603</v>
       </c>
       <c r="G70" s="25">
-        <v>0.91988075126731295</v>
+        <v>0.15680591615845901</v>
       </c>
       <c r="H70" s="25">
-        <v>0.94383387061761004</v>
+        <v>0.47232309314499998</v>
       </c>
       <c r="I70" s="25">
-        <v>0.74763127512296879</v>
+        <v>2.2626677338990007E-2</v>
       </c>
       <c r="J70" s="25">
-        <v>1</v>
+        <v>0.92405520849785017</v>
       </c>
       <c r="K70" s="24" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L70" s="24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="24" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F71" s="25">
-        <v>0.312277469956522</v>
-      </c>
-      <c r="G71" s="25">
-        <v>0.108909067987379</v>
-      </c>
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="G71" s="25"/>
       <c r="H71" s="25">
-        <v>0.55985467776216402</v>
-      </c>
-      <c r="I71" s="25">
-        <v>0</v>
-      </c>
-      <c r="J71" s="25">
-        <v>0.80384698723132364</v>
-      </c>
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
       <c r="K71" s="24" t="s">
-        <v>64</v>
+        <v>277</v>
       </c>
       <c r="L71" s="24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="24" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="E72" s="24" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F72" s="25">
-        <v>0.90531406409938897</v>
+        <v>0.70159890236811795</v>
       </c>
       <c r="G72" s="25">
-        <v>0.88886876689095196</v>
+        <v>0.484000839457911</v>
       </c>
       <c r="H72" s="25">
-        <v>0.96401605412931901</v>
+        <v>0.72631009783373301</v>
       </c>
       <c r="I72" s="25">
-        <v>0.85205949507489365</v>
-      </c>
-      <c r="J72" s="25">
-        <v>0.92881016198991695</v>
-      </c>
+        <v>0.52929744916550714</v>
+      </c>
+      <c r="J72" s="25"/>
       <c r="K72" s="24" t="s">
         <v>64</v>
       </c>
       <c r="L72" s="24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="24" t="s">
-        <v>263</v>
+        <v>85</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>264</v>
+        <v>86</v>
       </c>
       <c r="C73" s="24" t="s">
         <v>75</v>
@@ -17706,247 +17712,245 @@
         <v>87</v>
       </c>
       <c r="F73" s="25">
-        <v>0.51280490819023095</v>
+        <v>0.75660170702067897</v>
       </c>
       <c r="G73" s="25">
-        <v>0.40556036043229798</v>
+        <v>0.75969129936928104</v>
       </c>
       <c r="H73" s="25">
-        <v>0.59925736566464205</v>
+        <v>0.75503194307717503</v>
       </c>
       <c r="I73" s="25">
-        <v>6.759936307455211E-2</v>
+        <v>3.8846863800378384E-2</v>
       </c>
       <c r="J73" s="25">
-        <v>0.96812422948060606</v>
+        <v>1</v>
       </c>
       <c r="K73" s="24" t="s">
         <v>64</v>
       </c>
       <c r="L73" s="24" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="24" t="s">
-        <v>266</v>
+        <v>136</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E74" s="24" t="s">
         <v>70</v>
       </c>
       <c r="F74" s="25">
-        <v>0.44627397280720799</v>
+        <v>9.2682924270630004E-2</v>
       </c>
       <c r="G74" s="25">
-        <v>0.25868796594131699</v>
+        <v>1.7772512435913001E-2</v>
       </c>
       <c r="H74" s="25">
-        <v>0.53905698443965</v>
+        <v>0.15584415435790999</v>
       </c>
       <c r="I74" s="25">
-        <v>0.19039219203286656</v>
+        <v>2.2947926521300999E-2</v>
       </c>
       <c r="J74" s="25">
-        <v>0.87949824918489561</v>
+        <v>0.4</v>
       </c>
       <c r="K74" s="24" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="L74" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="24" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E75" s="24" t="s">
         <v>63</v>
       </c>
       <c r="F75" s="25">
-        <v>0.39900519205074603</v>
+        <v>0.51014724937087896</v>
       </c>
       <c r="G75" s="25">
-        <v>0.15680591615845901</v>
+        <v>0.53209053731469003</v>
       </c>
       <c r="H75" s="25">
-        <v>0.47232309314499998</v>
+        <v>0.42634380844118303</v>
       </c>
       <c r="I75" s="25">
-        <v>2.2626677338990007E-2</v>
-      </c>
-      <c r="J75" s="25">
-        <v>0.92405520849785017</v>
-      </c>
+        <v>6.9626024316316315E-2</v>
+      </c>
+      <c r="J75" s="25"/>
       <c r="K75" s="24" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L75" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="24" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E76" s="24" t="s">
         <v>63</v>
       </c>
       <c r="F76" s="25">
-        <v>0.51616381175673798</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="G76" s="25">
-        <v>0.42501980927691901</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="H76" s="25">
-        <v>0.63761499758725304</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="I76" s="25">
-        <v>0.38823164021374368</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="J76" s="25">
-        <v>0.83681040387826222</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="K76" s="24" t="s">
-        <v>64</v>
+        <v>247</v>
       </c>
       <c r="L76" s="24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="24" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="E77" s="24" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F77" s="25">
-        <v>7.2750000000000002E-3</v>
-      </c>
-      <c r="G77" s="25">
-        <v>2.4699999999999999E-4</v>
-      </c>
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="G77" s="25"/>
       <c r="H77" s="25">
-        <v>3.5258999999999999E-2</v>
-      </c>
-      <c r="I77" s="25">
-        <v>0</v>
-      </c>
-      <c r="J77" s="25">
-        <v>3.4610000000000002E-2</v>
-      </c>
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
       <c r="K77" s="24" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="L77" s="24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="24" t="s">
-        <v>275</v>
+        <v>73</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>276</v>
+        <v>74</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E78" s="24" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F78" s="25">
-        <v>0.79400000000000004</v>
+        <v>0.44719333725150801</v>
       </c>
       <c r="G78" s="25"/>
-      <c r="H78" s="25">
-        <v>0.79400000000000004</v>
-      </c>
+      <c r="H78" s="25"/>
       <c r="I78" s="25"/>
       <c r="J78" s="25"/>
       <c r="K78" s="24" t="s">
-        <v>277</v>
+        <v>64</v>
       </c>
       <c r="L78" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="24" t="s">
-        <v>278</v>
+        <v>98</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>279</v>
+        <v>99</v>
       </c>
       <c r="C79" s="24" t="s">
         <v>79</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="E79" s="24" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="F79" s="25">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="25"/>
+        <v>0.69937206754739201</v>
+      </c>
+      <c r="G79" s="25">
+        <v>0.64835387108379905</v>
+      </c>
+      <c r="H79" s="25">
+        <v>0.81088616848663597</v>
+      </c>
+      <c r="I79" s="25">
+        <v>0.1325362710219545</v>
+      </c>
+      <c r="J79" s="25">
+        <v>0.97927774245456534</v>
+      </c>
       <c r="K79" s="24" t="s">
-        <v>281</v>
+        <v>64</v>
       </c>
       <c r="L79" s="24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="24" t="s">
-        <v>282</v>
+        <v>207</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>283</v>
+        <v>208</v>
       </c>
       <c r="C80" s="24" t="s">
         <v>75</v>
@@ -17955,142 +17959,138 @@
         <v>75</v>
       </c>
       <c r="E80" s="24" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F80" s="25">
-        <v>0.70159890236811795</v>
-      </c>
-      <c r="G80" s="25">
-        <v>0.484000839457911</v>
-      </c>
-      <c r="H80" s="25">
-        <v>0.72631009783373301</v>
-      </c>
-      <c r="I80" s="25">
-        <v>0.52929744916550714</v>
-      </c>
+        <v>4.0654205610000001E-2</v>
+      </c>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
       <c r="J80" s="25"/>
       <c r="K80" s="24" t="s">
-        <v>64</v>
+        <v>209</v>
       </c>
       <c r="L80" s="24" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="24" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="F81" s="25">
-        <v>0.224</v>
+        <v>0.51280490819023095</v>
       </c>
       <c r="G81" s="25">
-        <v>0.17199999999999999</v>
+        <v>0.40556036043229798</v>
       </c>
       <c r="H81" s="25">
-        <v>0.376</v>
+        <v>0.59925736566464205</v>
       </c>
       <c r="I81" s="25">
-        <v>3.7299999999999998E-3</v>
+        <v>6.759936307455211E-2</v>
       </c>
       <c r="J81" s="25">
-        <v>0.70199999999999996</v>
+        <v>0.96812422948060606</v>
       </c>
       <c r="K81" s="24" t="s">
-        <v>287</v>
+        <v>64</v>
       </c>
       <c r="L81" s="24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="24" t="s">
-        <v>288</v>
+        <v>108</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>289</v>
+        <v>109</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="F82" s="25">
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="G82" s="25"/>
+        <v>1.58137028151158E-2</v>
+      </c>
+      <c r="G82" s="25">
+        <v>0</v>
+      </c>
       <c r="H82" s="25">
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="I82" s="25"/>
-      <c r="J82" s="25"/>
+        <v>5.04278233045563E-2</v>
+      </c>
+      <c r="I82" s="25">
+        <v>0</v>
+      </c>
+      <c r="J82" s="25">
+        <v>5.558443453546285E-2</v>
+      </c>
       <c r="K82" s="24" t="s">
-        <v>247</v>
+        <v>71</v>
       </c>
       <c r="L82" s="24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="24" t="s">
-        <v>290</v>
+        <v>199</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>291</v>
+        <v>200</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E83" s="24" t="s">
         <v>70</v>
       </c>
       <c r="F83" s="25">
-        <v>7.3372388275760703E-2</v>
+        <v>0.19472616195678999</v>
       </c>
       <c r="G83" s="25">
-        <v>2.5088661402047099E-2</v>
+        <v>0.12470587730408</v>
       </c>
       <c r="H83" s="25">
-        <v>0.138069502810658</v>
-      </c>
-      <c r="I83" s="25">
-        <v>0</v>
-      </c>
-      <c r="J83" s="25">
-        <v>0.28070101799180136</v>
-      </c>
+        <v>0.24777183532715</v>
+      </c>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
       <c r="K83" s="24" t="s">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="L83" s="24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="24" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="C84" s="24" t="s">
         <v>68</v>
@@ -18099,31 +18099,36 @@
         <v>69</v>
       </c>
       <c r="E84" s="24" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="F84" s="25">
-        <v>0.29203123712989298</v>
+        <v>5.7481889049834402E-3</v>
       </c>
       <c r="G84" s="25">
-        <v>0.20286436029936</v>
+        <v>2.4917012410843502E-3</v>
       </c>
       <c r="H84" s="25">
-        <v>0.51024357824163302</v>
+        <v>1.39303842939649E-2</v>
       </c>
       <c r="I84" s="25">
-        <v>5.3687406463181951E-2</v>
+        <v>0</v>
       </c>
       <c r="J84" s="25">
-        <v>0.6415452726903661</v>
+        <v>2.1169549736831772E-2</v>
       </c>
       <c r="K84" s="24" t="s">
         <v>64</v>
       </c>
       <c r="L84" s="24" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:L2" xr:uid="{00000000-0001-0000-0400-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L84">
+      <sortCondition descending="1" ref="L2:L84"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="9">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>

--- a/School-Age-Digital-Connectivity.xlsx
+++ b/School-Age-Digital-Connectivity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolcavallari/Github/Assignments fall 21:22/Final-Work-Data-Science/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8651D08F-E6F8-2D4A-97BA-DB273B271636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501C1A92-2F5C-574E-9FE9-36BDD2D27C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="15520" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="15520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3135" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3146" uniqueCount="304">
   <si>
     <t>UNICEF Global database on school-age digital connectivity</t>
   </si>
@@ -977,6 +977,24 @@
   </si>
   <si>
     <t>Multiscopo sulle famiglie: aspetti della vita quotidiana</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>National Telecommunications and Information Administration</t>
+  </si>
+  <si>
+    <t>Canada Statistitics - StatsCan</t>
   </si>
 </sst>
 </file>
@@ -986,7 +1004,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1081,6 +1099,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1160,7 +1184,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -1235,6 +1259,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1607,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33F0711-8F9F-4DC2-A629-139BAF0994F9}">
   <dimension ref="A4:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1856,10 +1886,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F27"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1868,7 +1898,7 @@
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="12" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.5" customWidth="1"/>
+    <col min="11" max="11" width="93" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5133,6 +5163,65 @@
       <c r="L89" s="24" t="s">
         <v>65</v>
       </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>299</v>
+      </c>
+      <c r="B90" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="E90" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F90" s="25">
+        <v>0.86</v>
+      </c>
+      <c r="G90" s="25"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="25"/>
+      <c r="K90" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="L90" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>301</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F91" s="25">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="G91" s="25"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="L91" s="32">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5146,6 +5235,7 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15024,7 +15114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
